--- a/biology/Zoologie/Grallaire_des_Andes/Grallaire_des_Andes.xlsx
+++ b/biology/Zoologie/Grallaire_des_Andes/Grallaire_des_Andes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria andicolus
 La Grallaire des Andes (Grallaria andicolus) est une espèce d'oiseaux de la famille des Grallariidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Pérou et en Bolivie[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Pérou et en Bolivie. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit dans la forêt tropicale humide de montagne ainsi que dans les prairies de Polylepis[réf. nécessaire].
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020) :
 sous-espèce Grallaria andicolus andicolus (Cabanis, 1873)
 sous-espèce Grallaria andicolus punensis Chubb, C, 1918</t>
         </is>
